--- a/medicine/Mort/Cimetière_des_Arches_de_Louveciennes/Cimetière_des_Arches_de_Louveciennes.xlsx
+++ b/medicine/Mort/Cimetière_des_Arches_de_Louveciennes/Cimetière_des_Arches_de_Louveciennes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Arches_de_Louveciennes</t>
+          <t>Cimetière_des_Arches_de_Louveciennes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière des Arches est le cimetière communal de Louveciennes dans les Yvelines. Il doit son nom aux arches du grand aqueduc qui le traverse, dit « aqueduc de Marly ». En effet huit arches de sa partie septentrionale le surplombent. Il est divisé entre le vieux cimetière et le nouveau cimetière paysager[1].
-Le vieux cimetière a ouvert ses portes en 1880, lorsque des tombes de l'ancien cimetière paroissial y ont été transférées, dont celle de Mme Vigée-Lebrun. Cette partie ancienne est inscrite au patrimoine historique[2]. Il est dominé par un ancien calvaire. Il est enclavé entre la batterie des Arches et l'aqueduc. La seule œuvre d'art est un mur bas-relief avec deux pleureuses pour la sépulture du peintre Léon Kamir[3] (1872-1933), par le sculpteur Henri Bouchard.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière des Arches est le cimetière communal de Louveciennes dans les Yvelines. Il doit son nom aux arches du grand aqueduc qui le traverse, dit « aqueduc de Marly ». En effet huit arches de sa partie septentrionale le surplombent. Il est divisé entre le vieux cimetière et le nouveau cimetière paysager.
+Le vieux cimetière a ouvert ses portes en 1880, lorsque des tombes de l'ancien cimetière paroissial y ont été transférées, dont celle de Mme Vigée-Lebrun. Cette partie ancienne est inscrite au patrimoine historique. Il est dominé par un ancien calvaire. Il est enclavé entre la batterie des Arches et l'aqueduc. La seule œuvre d'art est un mur bas-relief avec deux pleureuses pour la sépulture du peintre Léon Kamir (1872-1933), par le sculpteur Henri Bouchard.
 Le nouveau cimetière communique par une porte avec l'ancien cimetière. C'est un cimetière paysager avec des pierres tombales identiques et discrètes, à même la pelouse.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Arches_de_Louveciennes</t>
+          <t>Cimetière_des_Arches_de_Louveciennes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Personnalités inhumées à l'ancien cimetière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mme Aubernon née de Nerville (1825-1899), salonnière célèbre de la fin du XIXe siècle
 Julien Cain (1887-1972), administrateur de la Bibliothèque nationale et directeur des Bibliothèques de France
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Arches_de_Louveciennes</t>
+          <t>Cimetière_des_Arches_de_Louveciennes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Personnalités inhumées au nouveau cimetière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Alain Bernardin (1916-1991), fondateur du Crazy Horse Saloon
 André Casanova (1919-2009), compositeur
